--- a/Dataset 7 post.xlsx
+++ b/Dataset 7 post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\VS\07 - Settimo post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5C6AD0-ED08-4FB3-9186-4072B459E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FF6B9-6204-439F-8F65-665CC798CE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C802F7B5-586D-489C-9C7A-93DA0B288B75}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Piemonte</t>
   </si>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t>Trentino Alto Adige</t>
+  </si>
+  <si>
+    <t>Regione</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>NordOvest</t>
+  </si>
+  <si>
+    <t>NordEst</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Sud</t>
+  </si>
+  <si>
+    <t>Isole</t>
   </si>
 </sst>
 </file>
@@ -965,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA978E-8F72-45CD-8A21-AE0CB8B20500}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +997,10 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -1001,8 +1025,11 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1057,11 @@
       <c r="I2">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="I3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1088,8 +1121,11 @@
       <c r="I4">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1117,8 +1153,11 @@
       <c r="I5">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1146,8 +1185,11 @@
       <c r="I6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1175,8 +1217,11 @@
       <c r="I7">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1204,8 +1249,11 @@
       <c r="I8">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1233,8 +1281,11 @@
       <c r="I9">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1262,8 +1313,11 @@
       <c r="I10">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1291,8 +1345,11 @@
       <c r="I11">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1320,8 +1377,11 @@
       <c r="I12">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1349,8 +1409,11 @@
       <c r="I13">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1378,8 +1441,11 @@
       <c r="I14">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1407,8 +1473,11 @@
       <c r="I15">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1436,8 +1505,11 @@
       <c r="I16">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1465,8 +1537,11 @@
       <c r="I17">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1494,8 +1569,11 @@
       <c r="I18">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1523,8 +1601,11 @@
       <c r="I19">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1552,8 +1633,11 @@
       <c r="I20">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1580,6 +1664,9 @@
       </c>
       <c r="I21">
         <v>10.199999999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset 7 post.xlsx
+++ b/Dataset 7 post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\VS\07 - Settimo post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FF6B9-6204-439F-8F65-665CC798CE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D037D-B0D9-430E-800A-48A853B32A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C802F7B5-586D-489C-9C7A-93DA0B288B75}"/>
   </bookViews>

--- a/Dataset 7 post.xlsx
+++ b/Dataset 7 post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\VS\07 - Settimo post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5C6AD0-ED08-4FB3-9186-4072B459E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D037D-B0D9-430E-800A-48A853B32A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C802F7B5-586D-489C-9C7A-93DA0B288B75}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Piemonte</t>
   </si>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t>Trentino Alto Adige</t>
+  </si>
+  <si>
+    <t>Regione</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>NordOvest</t>
+  </si>
+  <si>
+    <t>NordEst</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Sud</t>
+  </si>
+  <si>
+    <t>Isole</t>
   </si>
 </sst>
 </file>
@@ -965,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA978E-8F72-45CD-8A21-AE0CB8B20500}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +997,10 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -1001,8 +1025,11 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1057,11 @@
       <c r="I2">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="I3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1088,8 +1121,11 @@
       <c r="I4">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1117,8 +1153,11 @@
       <c r="I5">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1146,8 +1185,11 @@
       <c r="I6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1175,8 +1217,11 @@
       <c r="I7">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1204,8 +1249,11 @@
       <c r="I8">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1233,8 +1281,11 @@
       <c r="I9">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1262,8 +1313,11 @@
       <c r="I10">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1291,8 +1345,11 @@
       <c r="I11">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1320,8 +1377,11 @@
       <c r="I12">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1349,8 +1409,11 @@
       <c r="I13">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1378,8 +1441,11 @@
       <c r="I14">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1407,8 +1473,11 @@
       <c r="I15">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1436,8 +1505,11 @@
       <c r="I16">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1465,8 +1537,11 @@
       <c r="I17">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1494,8 +1569,11 @@
       <c r="I18">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1523,8 +1601,11 @@
       <c r="I19">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1552,8 +1633,11 @@
       <c r="I20">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1580,6 +1664,9 @@
       </c>
       <c r="I21">
         <v>10.199999999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset 7 post.xlsx
+++ b/Dataset 7 post.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\VS\07 - Settimo post\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\VS\07 - Settimo post\ScatterplotBMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D037D-B0D9-430E-800A-48A853B32A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8A1DF6-F4BC-43B6-A2E5-6DA9EBA04EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C802F7B5-586D-489C-9C7A-93DA0B288B75}"/>
   </bookViews>
@@ -127,12 +127,6 @@
     <t>Zona</t>
   </si>
   <si>
-    <t>NordOvest</t>
-  </si>
-  <si>
-    <t>NordEst</t>
-  </si>
-  <si>
     <t>Centro</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>Isole</t>
+  </si>
+  <si>
+    <t>Nord Ovest</t>
+  </si>
+  <si>
+    <t>Nord Est</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1058,7 @@
         <v>10.6</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
         <v>11.8</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>9.5</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>10.6</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>8.5</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>11.3</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>11.7</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
         <v>12.4</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1314,7 +1314,7 @@
         <v>10.7</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>11.3</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>10.3</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>10.8</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>13.9</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>12.5</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1506,7 +1506,7 @@
         <v>14.3</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
         <v>12.3</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>14.9</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1602,7 +1602,7 @@
         <v>11.8</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
         <v>12.3</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1666,7 +1666,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
